--- a/ArticleManage/main_working_folder/output_folders/Data 7 Effects of activation method/Data7_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 7 Effects of activation method/Data7_all_graphs_excel.xlsx
@@ -5,12 +5,12 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 8 15%  0-1-0-300 " sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 8 20%  0-1-0-300 " sheetId="2" r:id="rId4"/>
-    <sheet name="Figure 8 9%  0-1-0-300 " sheetId="3" r:id="rId5"/>
-    <sheet name="Figure 9 10%  0-1-0-300 " sheetId="4" r:id="rId6"/>
-    <sheet name="Figure 9 20%  0-1-0-300 " sheetId="5" r:id="rId7"/>
-    <sheet name="Figure 9 25%  0-1-0-300 " sheetId="6" r:id="rId8"/>
+    <sheet name="Figure 8 15%  0&amp;1&amp;0&amp;300 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 8 20%  0&amp;1&amp;0&amp;300 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 8 9%  0&amp;1&amp;0&amp;300 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 9 10%  0&amp;1&amp;0&amp;300 " sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 9 20%  0&amp;1&amp;0&amp;300 " sheetId="5" r:id="rId7"/>
+    <sheet name="Figure 9 25%  0&amp;1&amp;0&amp;300 " sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -158,12 +158,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 8 15%  0-1-0-300 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 8 15%  0&amp;1&amp;0&amp;300 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 8 15%  0-1-0-300 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 8 15%  0&amp;1&amp;0&amp;300 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -472,12 +472,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 8 20%  0-1-0-300 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 8 20%  0&amp;1&amp;0&amp;300 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 8 20%  0-1-0-300 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 8 20%  0&amp;1&amp;0&amp;300 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -786,12 +786,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 8 9%  0-1-0-300 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 8 9%  0&amp;1&amp;0&amp;300 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 8 9%  0-1-0-300 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 8 9%  0&amp;1&amp;0&amp;300 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1100,12 +1100,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 9 10%  0-1-0-300 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 9 10%  0&amp;1&amp;0&amp;300 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 9 10%  0-1-0-300 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 9 10%  0&amp;1&amp;0&amp;300 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1414,12 +1414,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 9 20%  0-1-0-300 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 9 20%  0&amp;1&amp;0&amp;300 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 9 20%  0-1-0-300 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 9 20%  0&amp;1&amp;0&amp;300 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1728,12 +1728,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 9 25%  0-1-0-300 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 9 25%  0&amp;1&amp;0&amp;300 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 9 25%  0-1-0-300 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 9 25%  0&amp;1&amp;0&amp;300 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>

--- a/ArticleManage/main_working_folder/output_folders/Data 7 Effects of activation method/Data7_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 7 Effects of activation method/Data7_all_graphs_excel.xlsx
@@ -5,24 +5,42 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 8 15%  0&amp;1&amp;0&amp;300 " sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 8 20%  0&amp;1&amp;0&amp;300 " sheetId="2" r:id="rId4"/>
-    <sheet name="Figure 8 9%  0&amp;1&amp;0&amp;300 " sheetId="3" r:id="rId5"/>
-    <sheet name="Figure 9 10%  0&amp;1&amp;0&amp;300 " sheetId="4" r:id="rId6"/>
-    <sheet name="Figure 9 20%  0&amp;1&amp;0&amp;300 " sheetId="5" r:id="rId7"/>
-    <sheet name="Figure 9 25%  0&amp;1&amp;0&amp;300 " sheetId="6" r:id="rId8"/>
+    <sheet name="Figure 8 two-step-15%  0&amp;1&amp;0&amp;30" sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 8 two-step-20%  0&amp;1&amp;0&amp;30" sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 8 two-step-9%  0&amp;1&amp;0&amp;300" sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 9 one-step-10%  0&amp;1&amp;0&amp;30" sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 9 one-step-20%  0&amp;1&amp;0&amp;30" sheetId="5" r:id="rId7"/>
+    <sheet name="Figure 9 one-step-25%  0&amp;1&amp;0&amp;30" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>two-step-15%</t>
+  </si>
   <si>
     <t>X</t>
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>two-step-20%</t>
+  </si>
+  <si>
+    <t>two-step-9%</t>
+  </si>
+  <si>
+    <t>one-step-10%</t>
+  </si>
+  <si>
+    <t>one-step-20%</t>
+  </si>
+  <si>
+    <t>one-step-25%</t>
   </si>
 </sst>
 </file>
@@ -99,7 +117,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 15% z wykresu 'Figure 8' </a:t>
+              <a:t>Izoterma adsorpcji probki two-step-15% z wykresu 'Figure 8' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -158,12 +176,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 8 15%  0&amp;1&amp;0&amp;300 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 8 two-step-15%  0&amp;1&amp;0&amp;30'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 8 15%  0&amp;1&amp;0&amp;300 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 8 two-step-15%  0&amp;1&amp;0&amp;30'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -413,7 +431,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 20% z wykresu 'Figure 8' </a:t>
+              <a:t>Izoterma adsorpcji probki two-step-20% z wykresu 'Figure 8' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -472,12 +490,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 8 20%  0&amp;1&amp;0&amp;300 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 8 two-step-20%  0&amp;1&amp;0&amp;30'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 8 20%  0&amp;1&amp;0&amp;300 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 8 two-step-20%  0&amp;1&amp;0&amp;30'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -727,7 +745,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 9% z wykresu 'Figure 8' </a:t>
+              <a:t>Izoterma adsorpcji probki two-step-9% z wykresu 'Figure 8' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -786,12 +804,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 8 9%  0&amp;1&amp;0&amp;300 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 8 two-step-9%  0&amp;1&amp;0&amp;300'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 8 9%  0&amp;1&amp;0&amp;300 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 8 two-step-9%  0&amp;1&amp;0&amp;300'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1041,7 +1059,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 10% z wykresu 'Figure 9' </a:t>
+              <a:t>Izoterma adsorpcji probki one-step-10% z wykresu 'Figure 9' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1100,12 +1118,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 9 10%  0&amp;1&amp;0&amp;300 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 9 one-step-10%  0&amp;1&amp;0&amp;30'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 9 10%  0&amp;1&amp;0&amp;300 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 9 one-step-10%  0&amp;1&amp;0&amp;30'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1355,7 +1373,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 20% z wykresu 'Figure 9' </a:t>
+              <a:t>Izoterma adsorpcji probki one-step-20% z wykresu 'Figure 9' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1414,12 +1432,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 9 20%  0&amp;1&amp;0&amp;300 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 9 one-step-20%  0&amp;1&amp;0&amp;30'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 9 20%  0&amp;1&amp;0&amp;300 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 9 one-step-20%  0&amp;1&amp;0&amp;30'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1669,7 +1687,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 25% z wykresu 'Figure 9' </a:t>
+              <a:t>Izoterma adsorpcji probki one-step-25% z wykresu 'Figure 9' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1728,12 +1746,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 9 25%  0&amp;1&amp;0&amp;300 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 9 one-step-25%  0&amp;1&amp;0&amp;30'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 9 25%  0&amp;1&amp;0&amp;300 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 9 one-step-25%  0&amp;1&amp;0&amp;30'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -5830,192 +5848,192 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0">
-        <v>0.15</v>
+      <c r="A1" s="0" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.9989</v>
+        <v>-0.0004</v>
       </c>
       <c r="B3" s="0">
-        <v>234.0182</v>
+        <v>18.3495</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.9591</v>
+        <v>0.0041</v>
       </c>
       <c r="B4" s="0">
-        <v>229.9524</v>
+        <v>173.3227</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.9099</v>
+        <v>0.0532</v>
       </c>
       <c r="B5" s="0">
-        <v>228.7632</v>
+        <v>198.9567</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.8619</v>
+        <v>0.1095</v>
       </c>
       <c r="B6" s="0">
-        <v>228.8026</v>
+        <v>203.8079</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.8086</v>
+        <v>0.1534</v>
       </c>
       <c r="B7" s="0">
-        <v>227.6168</v>
+        <v>207.5565</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.7573</v>
+        <v>0.2063</v>
       </c>
       <c r="B8" s="0">
-        <v>226.0194</v>
+        <v>208.8712</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.7103</v>
+        <v>0.2581</v>
       </c>
       <c r="B9" s="0">
-        <v>224.8285</v>
+        <v>212.397</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.657</v>
+        <v>0.3098</v>
       </c>
       <c r="B10" s="0">
-        <v>223.6427</v>
+        <v>213.491</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.6089</v>
+        <v>0.3588</v>
       </c>
       <c r="B11" s="0">
-        <v>222.4526</v>
+        <v>215.0277</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.5608</v>
+        <v>0.4071</v>
       </c>
       <c r="B12" s="0">
-        <v>219.2133</v>
+        <v>216.3434</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.5085</v>
+        <v>0.46</v>
       </c>
       <c r="B13" s="0">
-        <v>219.2562</v>
+        <v>218.1003</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.4625</v>
+        <v>0.5073</v>
       </c>
       <c r="B14" s="0">
-        <v>218.0644</v>
+        <v>219.4164</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.4071</v>
+        <v>0.559</v>
       </c>
       <c r="B15" s="0">
-        <v>216.4704</v>
+        <v>219.4049</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.3601</v>
+        <v>0.608</v>
       </c>
       <c r="B16" s="0">
-        <v>215.2795</v>
+        <v>222.4892</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.3109</v>
+        <v>0.6558</v>
       </c>
       <c r="B17" s="0">
-        <v>213.2706</v>
+        <v>223.805</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.2587</v>
+        <v>0.7081</v>
       </c>
       <c r="B18" s="0">
-        <v>211.6741</v>
+        <v>225.341</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.2064</v>
+        <v>0.7559</v>
       </c>
       <c r="B19" s="0">
-        <v>208.8481</v>
+        <v>226.4358</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.1541</v>
+        <v>0.8071</v>
       </c>
       <c r="B20" s="0">
-        <v>207.6614</v>
+        <v>227.972</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.1101</v>
+        <v>0.8589</v>
       </c>
       <c r="B21" s="0">
-        <v>204.0089</v>
+        <v>229.287</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.0536</v>
+        <v>0.9084</v>
       </c>
       <c r="B22" s="0">
-        <v>199.1372</v>
+        <v>229.4972</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.0051</v>
+        <v>0.9579</v>
       </c>
       <c r="B23" s="0">
-        <v>173.3573</v>
+        <v>230.5916</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.0007</v>
+        <v>0.9973</v>
       </c>
       <c r="B24" s="0">
-        <v>18.8539</v>
+        <v>234.7833</v>
       </c>
     </row>
     <row r="25"/>
@@ -6034,192 +6052,192 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0">
-        <v>0.2</v>
+      <c r="A1" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0064</v>
+        <v>-0.0008</v>
       </c>
       <c r="B3" s="0">
-        <v>185.2415</v>
+        <v>43.3312</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.052</v>
+        <v>0.0053</v>
       </c>
       <c r="B4" s="0">
-        <v>226.5976</v>
+        <v>185.4816</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.1065</v>
+        <v>0.0534</v>
       </c>
       <c r="B5" s="0">
-        <v>233.93</v>
+        <v>226.8122</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.1536</v>
+        <v>0.1058</v>
       </c>
       <c r="B6" s="0">
-        <v>237.5799</v>
+        <v>234.5383</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.209</v>
+        <v>0.1531</v>
       </c>
       <c r="B7" s="0">
-        <v>241.223</v>
+        <v>237.6229</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.2571</v>
+        <v>0.2077</v>
       </c>
       <c r="B8" s="0">
-        <v>244.8721</v>
+        <v>241.8113</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.3094</v>
+        <v>0.2561</v>
       </c>
       <c r="B9" s="0">
-        <v>245.6489</v>
+        <v>245.3378</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.3607</v>
+        <v>0.3067</v>
       </c>
       <c r="B10" s="0">
-        <v>249.2954</v>
+        <v>246.2109</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.4077</v>
+        <v>0.3601</v>
       </c>
       <c r="B11" s="0">
-        <v>250.0765</v>
+        <v>249.5152</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.4621</v>
+        <v>0.408</v>
       </c>
       <c r="B12" s="0">
-        <v>253.3106</v>
+        <v>251.0522</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.5112</v>
+        <v>0.4597</v>
       </c>
       <c r="B13" s="0">
-        <v>254.9097</v>
+        <v>253.9147</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.5573</v>
+        <v>0.5092</v>
       </c>
       <c r="B14" s="0">
-        <v>257.331</v>
+        <v>255.4513</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.6106</v>
+        <v>0.5559</v>
       </c>
       <c r="B15" s="0">
-        <v>259.3364</v>
+        <v>258.0939</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.6576</v>
+        <v>0.6077</v>
       </c>
       <c r="B16" s="0">
-        <v>261.7569</v>
+        <v>259.63</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.7058</v>
+        <v>0.6555</v>
       </c>
       <c r="B17" s="0">
-        <v>265.406</v>
+        <v>261.8302</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.7581</v>
+        <v>0.7045</v>
       </c>
       <c r="B18" s="0">
-        <v>267.0025</v>
+        <v>265.1355</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.8062</v>
+        <v>0.7562</v>
       </c>
       <c r="B19" s="0">
-        <v>270.2417</v>
+        <v>267.7769</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.8595</v>
+        <v>0.8029</v>
       </c>
       <c r="B20" s="0">
-        <v>273.0668</v>
+        <v>271.3038</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.9066</v>
+        <v>0.8558</v>
       </c>
       <c r="B21" s="0">
-        <v>276.7168</v>
+        <v>273.5029</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.9609</v>
+        <v>0.9048</v>
       </c>
       <c r="B22" s="0">
-        <v>277.0821</v>
+        <v>277.2504</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.9976</v>
+        <v>0.9571</v>
       </c>
       <c r="B23" s="0">
-        <v>282.7897</v>
+        <v>277.902</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.0003</v>
+        <v>0.9943</v>
       </c>
       <c r="B24" s="0">
-        <v>43.4437</v>
+        <v>283.4207</v>
       </c>
     </row>
     <row r="25"/>
@@ -6238,120 +6256,120 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0">
-        <v>0.09</v>
+      <c r="A1" s="0" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.9972</v>
+        <v>0.0044</v>
       </c>
       <c r="B3" s="0">
-        <v>198.3638</v>
+        <v>138.6137</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.9052</v>
+        <v>0.1008</v>
       </c>
       <c r="B4" s="0">
-        <v>194.7507</v>
+        <v>171.0906</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.809</v>
+        <v>0.1532</v>
       </c>
       <c r="B5" s="0">
-        <v>191.9607</v>
+        <v>175.9427</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.7066</v>
+        <v>0.2055</v>
       </c>
       <c r="B6" s="0">
-        <v>190.4053</v>
+        <v>177.0365</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.6093</v>
+        <v>0.2578</v>
       </c>
       <c r="B7" s="0">
-        <v>187.6162</v>
+        <v>180.3411</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.5079</v>
+        <v>0.3062</v>
       </c>
       <c r="B8" s="0">
-        <v>185.6501</v>
+        <v>182.099</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.4076</v>
+        <v>0.4069</v>
       </c>
       <c r="B9" s="0">
-        <v>184.093</v>
+        <v>183.6242</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.3073</v>
+        <v>0.5076</v>
       </c>
       <c r="B10" s="0">
-        <v>182.1261</v>
+        <v>186.2549</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.2592</v>
+        <v>0.6077</v>
       </c>
       <c r="B11" s="0">
-        <v>180.5261</v>
+        <v>187.7803</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2058</v>
+        <v>0.7073</v>
       </c>
       <c r="B12" s="0">
-        <v>177.2912</v>
+        <v>191.0744</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.1012</v>
+        <v>0.8085</v>
       </c>
       <c r="B13" s="0">
-        <v>171.2294</v>
+        <v>192.1574</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.0045</v>
+        <v>0.9042</v>
       </c>
       <c r="B14" s="0">
-        <v>138.5218</v>
+        <v>195.4524</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.1535</v>
+        <v>0.9953</v>
       </c>
       <c r="B15" s="0">
-        <v>176.1045</v>
+        <v>199.6327</v>
       </c>
     </row>
     <row r="16"/>
@@ -6370,128 +6388,128 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0">
-        <v>0.1</v>
+      <c r="A1" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.9917</v>
+        <v>0.9947</v>
       </c>
       <c r="B3" s="0">
-        <v>219.6998</v>
+        <v>220.5355</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.9044</v>
+        <v>0.9084</v>
       </c>
       <c r="B4" s="0">
-        <v>215.13</v>
+        <v>216.25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.8037</v>
+        <v>0.808</v>
       </c>
       <c r="B5" s="0">
-        <v>213.5369</v>
+        <v>214.4329</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.7044</v>
+        <v>0.7075</v>
       </c>
       <c r="B6" s="0">
-        <v>212.5316</v>
+        <v>212.6157</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.6051</v>
+        <v>0.6079</v>
       </c>
       <c r="B7" s="0">
-        <v>211.5263</v>
+        <v>211.7224</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.5059</v>
+        <v>0.5083</v>
       </c>
       <c r="B8" s="0">
-        <v>210.5211</v>
+        <v>210.213</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.4036</v>
+        <v>0.4048</v>
       </c>
       <c r="B9" s="0">
-        <v>208.3401</v>
+        <v>208.7049</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.3088</v>
+        <v>0.3106</v>
       </c>
       <c r="B10" s="0">
-        <v>206.1458</v>
+        <v>205.3458</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.2577</v>
+        <v>0.2581</v>
       </c>
       <c r="B11" s="0">
-        <v>203.2836</v>
+        <v>203.5139</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2096</v>
+        <v>0.2102</v>
       </c>
       <c r="B12" s="0">
-        <v>202.1878</v>
+        <v>202.2966</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.1569</v>
+        <v>0.1584</v>
       </c>
       <c r="B13" s="0">
-        <v>199.9189</v>
+        <v>199.5405</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.1012</v>
+        <v>0.1027</v>
       </c>
       <c r="B14" s="0">
-        <v>197.6553</v>
+        <v>196.4776</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.0047</v>
+        <v>0.0053</v>
       </c>
       <c r="B15" s="0">
-        <v>171.842</v>
+        <v>171.559</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.0003</v>
+        <v>0.0018</v>
       </c>
       <c r="B16" s="0">
-        <v>26.5743</v>
+        <v>26.1802</v>
       </c>
     </row>
     <row r="17"/>
@@ -6503,194 +6521,202 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0">
-        <v>0.2</v>
+      <c r="A1" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.992</v>
+        <v>0.0021</v>
       </c>
       <c r="B3" s="0">
-        <v>254.5417</v>
+        <v>167.8638</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.9574</v>
+        <v>0.0093</v>
       </c>
       <c r="B4" s="0">
-        <v>248.107</v>
+        <v>186.6501</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.9047</v>
+        <v>0.0565</v>
       </c>
       <c r="B5" s="0">
-        <v>247.0192</v>
+        <v>207.5801</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.8551</v>
+        <v>0.1091</v>
       </c>
       <c r="B6" s="0">
-        <v>246.5165</v>
+        <v>213.4161</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.8024</v>
+        <v>0.1538</v>
       </c>
       <c r="B7" s="0">
-        <v>243.0665</v>
+        <v>215.8664</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.7558</v>
+        <v>0.2064</v>
       </c>
       <c r="B8" s="0">
-        <v>239.6059</v>
+        <v>219.5463</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.7031</v>
+        <v>0.259</v>
       </c>
       <c r="B9" s="0">
-        <v>237.9275</v>
+        <v>222.3022</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.655</v>
+        <v>0.31</v>
       </c>
       <c r="B10" s="0">
-        <v>237.4222</v>
+        <v>223.8265</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.6024</v>
+        <v>0.3579</v>
       </c>
       <c r="B11" s="0">
-        <v>234.5628</v>
+        <v>227.1998</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.5572</v>
+        <v>0.4112</v>
       </c>
       <c r="B12" s="0">
-        <v>233.4616</v>
+        <v>228.7234</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.5076</v>
+        <v>0.4575</v>
       </c>
       <c r="B13" s="0">
-        <v>230.5968</v>
+        <v>229.6332</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.4564</v>
+        <v>0.5093</v>
       </c>
       <c r="B14" s="0">
-        <v>228.9158</v>
+        <v>230.8493</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.4098</v>
+        <v>0.5571</v>
       </c>
       <c r="B15" s="0">
-        <v>227.8173</v>
+        <v>233.9146</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.3542</v>
+        <v>0.6058</v>
       </c>
       <c r="B16" s="0">
-        <v>226.1442</v>
+        <v>235.7477</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.3075</v>
+        <v>0.6576</v>
       </c>
       <c r="B17" s="0">
-        <v>223.2741</v>
+        <v>238.1958</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.2564</v>
+        <v>0.7054</v>
       </c>
       <c r="B18" s="0">
-        <v>221.5931</v>
+        <v>239.1051</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.2052</v>
+        <v>0.7572</v>
       </c>
       <c r="B19" s="0">
-        <v>219.3215</v>
+        <v>240.9372</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.1526</v>
+        <v>0.805</v>
       </c>
       <c r="B20" s="0">
-        <v>216.462</v>
+        <v>243.6945</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.1074</v>
+        <v>0.8568</v>
       </c>
       <c r="B21" s="0">
-        <v>213.5892</v>
+        <v>247.0667</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.0547</v>
+        <v>0.9094</v>
       </c>
       <c r="B22" s="0">
-        <v>207.1865</v>
+        <v>248.2825</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.0079</v>
+        <v>0.9588</v>
       </c>
       <c r="B23" s="0">
-        <v>187.1907</v>
-      </c>
-    </row>
-    <row r="24"/>
+        <v>250.1154</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.9934</v>
+      </c>
+      <c r="B24" s="0">
+        <v>255.6489</v>
+      </c>
+    </row>
+    <row r="25"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -6706,128 +6732,128 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0">
-        <v>0.25</v>
+      <c r="A1" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.9954</v>
+        <v>0.0019</v>
       </c>
       <c r="B3" s="0">
-        <v>139.3783</v>
+        <v>36.9604</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.9066</v>
+        <v>0.0055</v>
       </c>
       <c r="B4" s="0">
-        <v>137.1733</v>
+        <v>99.177</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.8059</v>
+        <v>0.1084</v>
       </c>
       <c r="B5" s="0">
-        <v>136.1707</v>
+        <v>127.174</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.7066</v>
+        <v>0.1532</v>
       </c>
       <c r="B6" s="0">
-        <v>136.3465</v>
+        <v>129.0083</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.6044</v>
+        <v>0.2057</v>
       </c>
       <c r="B7" s="0">
-        <v>135.9371</v>
+        <v>130.8401</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.5066</v>
+        <v>0.2583</v>
       </c>
       <c r="B8" s="0">
-        <v>134.9292</v>
+        <v>132.056</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.4074</v>
+        <v>0.3093</v>
       </c>
       <c r="B9" s="0">
-        <v>135.1051</v>
+        <v>134.1963</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.3081</v>
+        <v>0.4097</v>
       </c>
       <c r="B10" s="0">
-        <v>134.0998</v>
+        <v>135.3974</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.2555</v>
+        <v>0.5085</v>
       </c>
       <c r="B11" s="0">
-        <v>131.8309</v>
+        <v>135.675</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2043</v>
+        <v>0.6073</v>
       </c>
       <c r="B12" s="0">
-        <v>130.7404</v>
+        <v>137.1846</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.1517</v>
+        <v>0.7077</v>
       </c>
       <c r="B13" s="0">
-        <v>129.062</v>
+        <v>136.8457</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.108</v>
+        <v>0.8081</v>
       </c>
       <c r="B14" s="0">
-        <v>127.3676</v>
+        <v>136.8147</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.0025</v>
+        <v>0.907</v>
       </c>
       <c r="B15" s="0">
-        <v>99.2082</v>
+        <v>138.9404</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0011</v>
+        <v>0.9972</v>
       </c>
       <c r="B16" s="0">
-        <v>36.6162</v>
+        <v>141.0686</v>
       </c>
     </row>
     <row r="17"/>
